--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N2">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O2">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P2">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q2">
-        <v>0.50212643438</v>
+        <v>3.598898129617778</v>
       </c>
       <c r="R2">
-        <v>4.51913790942</v>
+        <v>32.39008316656</v>
       </c>
       <c r="S2">
-        <v>0.002652014698581576</v>
+        <v>0.02481005703471506</v>
       </c>
       <c r="T2">
-        <v>0.002652014698581577</v>
+        <v>0.02481005703471506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>5.860601</v>
       </c>
       <c r="O3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q3">
-        <v>7.71483655039</v>
+        <v>17.73992461969156</v>
       </c>
       <c r="R3">
-        <v>69.43352895350999</v>
+        <v>159.659321577224</v>
       </c>
       <c r="S3">
-        <v>0.04074643063564549</v>
+        <v>0.1222953597891467</v>
       </c>
       <c r="T3">
-        <v>0.04074643063564549</v>
+        <v>0.1222953597891467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N4">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O4">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P4">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q4">
-        <v>0.595271558</v>
+        <v>2.262825285205333</v>
       </c>
       <c r="R4">
-        <v>5.357444022</v>
+        <v>20.365427566848</v>
       </c>
       <c r="S4">
-        <v>0.003143966964043259</v>
+        <v>0.01559944804314373</v>
       </c>
       <c r="T4">
-        <v>0.003143966964043259</v>
+        <v>0.01559944804314374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N5">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O5">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P5">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q5">
-        <v>17.03925211436</v>
+        <v>29.23949294868623</v>
       </c>
       <c r="R5">
-        <v>153.35326902924</v>
+        <v>263.155436538176</v>
       </c>
       <c r="S5">
-        <v>0.0899939616123102</v>
+        <v>0.20157099800991</v>
       </c>
       <c r="T5">
-        <v>0.08999396161231021</v>
+        <v>0.2015709980099101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N6">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O6">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P6">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q6">
-        <v>0.14062599453</v>
+        <v>0.07208148532355556</v>
       </c>
       <c r="R6">
-        <v>1.26563395077</v>
+        <v>0.6487333679120001</v>
       </c>
       <c r="S6">
-        <v>0.0007427256940907766</v>
+        <v>0.000496914804925118</v>
       </c>
       <c r="T6">
-        <v>0.0007427256940907767</v>
+        <v>0.000496914804925118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +859,40 @@
         <v>8.875596</v>
       </c>
       <c r="I7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N7">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O7">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P7">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q7">
-        <v>0.3761694543813333</v>
+        <v>1.172505678693333</v>
       </c>
       <c r="R7">
-        <v>3.385525089432</v>
+        <v>10.55255110824</v>
       </c>
       <c r="S7">
-        <v>0.001986764396119677</v>
+        <v>0.008083010886723373</v>
       </c>
       <c r="T7">
-        <v>0.001986764396119678</v>
+        <v>0.008083010886723377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +939,10 @@
         <v>5.860601</v>
       </c>
       <c r="O8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q8">
         <v>5.779591865910667</v>
@@ -948,10 +951,10 @@
         <v>52.016326793196</v>
       </c>
       <c r="S8">
-        <v>0.03052530504418333</v>
+        <v>0.03984330721965944</v>
       </c>
       <c r="T8">
-        <v>0.03052530504418333</v>
+        <v>0.03984330721965944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N9">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O9">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P9">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q9">
-        <v>0.4459493901333333</v>
+        <v>0.7372188378879999</v>
       </c>
       <c r="R9">
-        <v>4.0135445112</v>
+        <v>6.634969540992</v>
       </c>
       <c r="S9">
-        <v>0.002355311842758055</v>
+        <v>0.005082233716076363</v>
       </c>
       <c r="T9">
-        <v>0.002355311842758056</v>
+        <v>0.005082233716076364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N10">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O10">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P10">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q10">
-        <v>12.76500445318933</v>
+        <v>9.526102237322668</v>
       </c>
       <c r="R10">
-        <v>114.885040078704</v>
+        <v>85.73492013590401</v>
       </c>
       <c r="S10">
-        <v>0.06741923372171654</v>
+        <v>0.06567097242388548</v>
       </c>
       <c r="T10">
-        <v>0.06741923372171654</v>
+        <v>0.06567097242388549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N11">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O11">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P11">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q11">
-        <v>0.105350365988</v>
+        <v>0.02348384083866667</v>
       </c>
       <c r="R11">
-        <v>0.9481532938919999</v>
+        <v>0.211354567548</v>
       </c>
       <c r="S11">
-        <v>0.0005564150778998557</v>
+        <v>0.000161892726500533</v>
       </c>
       <c r="T11">
-        <v>0.0005564150778998558</v>
+        <v>0.000161892726500533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H12">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I12">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J12">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N12">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O12">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P12">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q12">
-        <v>0.007751325264444445</v>
+        <v>0.04010426724444445</v>
       </c>
       <c r="R12">
-        <v>0.06976192738000001</v>
+        <v>0.3609384052</v>
       </c>
       <c r="S12">
-        <v>4.093914824495479E-05</v>
+        <v>0.0002764704978675778</v>
       </c>
       <c r="T12">
-        <v>4.09391482449548E-05</v>
+        <v>0.0002764704978675779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H13">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I13">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J13">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1249,22 @@
         <v>5.860601</v>
       </c>
       <c r="O13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q13">
-        <v>0.1190939240988889</v>
+        <v>0.1976845835088889</v>
       </c>
       <c r="R13">
-        <v>1.07184531689</v>
+        <v>1.77916125158</v>
       </c>
       <c r="S13">
-        <v>0.0006290026088986802</v>
+        <v>0.001362796504679146</v>
       </c>
       <c r="T13">
-        <v>0.0006290026088986802</v>
+        <v>0.001362796504679147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N14">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O14">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P14">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q14">
-        <v>0.009189206444444445</v>
+        <v>0.02521575957333334</v>
       </c>
       <c r="R14">
-        <v>0.08270285799999999</v>
+        <v>0.22694183616</v>
       </c>
       <c r="S14">
-        <v>4.853341487400066E-05</v>
+        <v>0.0001738322149325479</v>
       </c>
       <c r="T14">
-        <v>4.853341487400066E-05</v>
+        <v>0.000173832214932548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N15">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O15">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P15">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q15">
-        <v>0.2630349178177778</v>
+        <v>0.3258298504355556</v>
       </c>
       <c r="R15">
-        <v>2.36731426036</v>
+        <v>2.93246865392</v>
       </c>
       <c r="S15">
-        <v>0.001389236695244436</v>
+        <v>0.002246203388306898</v>
       </c>
       <c r="T15">
-        <v>0.001389236695244437</v>
+        <v>0.002246203388306899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N16">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O16">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P16">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q16">
-        <v>0.002170843336666666</v>
+        <v>0.0008032389488888891</v>
       </c>
       <c r="R16">
-        <v>0.01953759003</v>
+        <v>0.007229150540000001</v>
       </c>
       <c r="S16">
-        <v>1.146545579554371E-05</v>
+        <v>5.537362663986939E-06</v>
       </c>
       <c r="T16">
-        <v>1.146545579554372E-05</v>
+        <v>5.537362663986939E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H17">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I17">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J17">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N17">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O17">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P17">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q17">
-        <v>2.771657679333778</v>
+        <v>4.977313816926667</v>
       </c>
       <c r="R17">
-        <v>24.944919114004</v>
+        <v>44.79582435234001</v>
       </c>
       <c r="S17">
-        <v>0.01463869735140647</v>
+        <v>0.03431256880025691</v>
       </c>
       <c r="T17">
-        <v>0.01463869735140647</v>
+        <v>0.03431256880025692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H18">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I18">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J18">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1559,22 @@
         <v>5.860601</v>
       </c>
       <c r="O18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q18">
-        <v>42.58466494817355</v>
+        <v>24.53450160041234</v>
       </c>
       <c r="R18">
-        <v>383.261984533562</v>
+        <v>220.810514403711</v>
       </c>
       <c r="S18">
-        <v>0.2249137859395402</v>
+        <v>0.1691357638092372</v>
       </c>
       <c r="T18">
-        <v>0.2249137859395402</v>
+        <v>0.1691357638092372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H19">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I19">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J19">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N19">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O19">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P19">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q19">
-        <v>3.285803877377778</v>
+        <v>3.129511075808</v>
       </c>
       <c r="R19">
-        <v>29.5722348964</v>
+        <v>28.165599682272</v>
       </c>
       <c r="S19">
-        <v>0.01735419524411576</v>
+        <v>0.02157420007045743</v>
       </c>
       <c r="T19">
-        <v>0.01735419524411576</v>
+        <v>0.02157420007045743</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N20">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O20">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P20">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q20">
-        <v>94.05394884494311</v>
+        <v>40.43852507402934</v>
       </c>
       <c r="R20">
-        <v>846.4855396044879</v>
+        <v>363.9467256662641</v>
       </c>
       <c r="S20">
-        <v>0.4967522873087038</v>
+        <v>0.2787748019955699</v>
       </c>
       <c r="T20">
-        <v>0.4967522873087039</v>
+        <v>0.2787748019955699</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1739,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N21">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O21">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P21">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q21">
-        <v>0.7762330181526665</v>
+        <v>0.09968944936033336</v>
       </c>
       <c r="R21">
-        <v>6.986097163373999</v>
+        <v>0.8972050442430001</v>
       </c>
       <c r="S21">
-        <v>0.004099727145827408</v>
+        <v>0.0006872383811130233</v>
       </c>
       <c r="T21">
-        <v>0.004099727145827409</v>
+        <v>0.0006872383811130233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.585256</v>
+      </c>
+      <c r="I22">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J22">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3963133333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.18894</v>
+      </c>
+      <c r="O22">
+        <v>0.06801510022865438</v>
+      </c>
+      <c r="P22">
+        <v>0.0680151002286544</v>
+      </c>
+      <c r="Q22">
+        <v>0.07731491873777778</v>
+      </c>
+      <c r="R22">
+        <v>0.6958342686400001</v>
+      </c>
+      <c r="S22">
+        <v>0.0005329930090914655</v>
+      </c>
+      <c r="T22">
+        <v>0.0005329930090914657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.585256</v>
+      </c>
+      <c r="I23">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J23">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N23">
+        <v>5.860601</v>
+      </c>
+      <c r="O23">
+        <v>0.3352644914084412</v>
+      </c>
+      <c r="P23">
+        <v>0.3352644914084412</v>
+      </c>
+      <c r="Q23">
+        <v>0.3811057665395556</v>
+      </c>
+      <c r="R23">
+        <v>3.429951898856</v>
+      </c>
+      <c r="S23">
+        <v>0.002627264085718751</v>
+      </c>
+      <c r="T23">
+        <v>0.002627264085718752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.585256</v>
+      </c>
+      <c r="I24">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J24">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.249184</v>
+      </c>
+      <c r="N24">
+        <v>0.747552</v>
+      </c>
+      <c r="O24">
+        <v>0.04276483607762464</v>
+      </c>
+      <c r="P24">
+        <v>0.04276483607762464</v>
+      </c>
+      <c r="Q24">
+        <v>0.04861214370133333</v>
+      </c>
+      <c r="R24">
+        <v>0.437509293312</v>
+      </c>
+      <c r="S24">
+        <v>0.0003351220330145703</v>
+      </c>
+      <c r="T24">
+        <v>0.0003351220330145704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.585256</v>
+      </c>
+      <c r="I25">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J25">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.219874666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.659624000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.5525933138182881</v>
+      </c>
+      <c r="P25">
+        <v>0.5525933138182881</v>
+      </c>
+      <c r="Q25">
+        <v>0.6281503226382223</v>
+      </c>
+      <c r="R25">
+        <v>5.653352903744</v>
+      </c>
+      <c r="S25">
+        <v>0.004330338000615792</v>
+      </c>
+      <c r="T25">
+        <v>0.004330338000615793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.007937666666666668</v>
+      </c>
+      <c r="N26">
+        <v>0.023813</v>
+      </c>
+      <c r="O26">
+        <v>0.001362258466991561</v>
+      </c>
+      <c r="P26">
+        <v>0.001362258466991561</v>
+      </c>
+      <c r="Q26">
+        <v>0.001548522347555556</v>
+      </c>
+      <c r="R26">
+        <v>0.013936701128</v>
+      </c>
+      <c r="S26">
+        <v>1.067519178890026E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.067519178890026E-05</v>
       </c>
     </row>
   </sheetData>
